--- a/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuya vivienda tiene &lt;=2 habitaciones</t>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,49%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 25,96</t>
+          <t>12,2; 26,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 24,95</t>
+          <t>16,37; 29,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,5; 31,66</t>
+          <t>19,19; 31,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,82; 34,61</t>
+          <t>13,61; 31,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,27; 26,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 23,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 22,11</t>
+          <t>16,03; 30,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,79; 29,25</t>
+          <t>16,04; 25,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 24,84</t>
+          <t>15,47; 23,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 22,75</t>
+          <t>15,86; 31,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,04; 30,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,74; 26,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 25,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18,43; 25,72</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 28,16</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,1</t>
+          <t>13,26; 25,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 25,29</t>
+          <t>16,5; 25,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 25,05</t>
+          <t>16,34; 25,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 29,17</t>
+          <t>11,75; 19,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 25,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,59; 25,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 23,43</t>
+          <t>17,67; 27,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,69; 27,32</t>
+          <t>17,84; 25,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,89</t>
+          <t>17,26; 24,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,0</t>
+          <t>15,27; 24,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 27,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 24,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 24,64</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,4; 23,01</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 20,38</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 23,46</t>
+          <t>11,79; 23,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 20,48</t>
+          <t>12,52; 22,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 20,62</t>
+          <t>12,64; 19,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 37,15</t>
+          <t>13,92; 24,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,22; 23,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 22,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 23,17</t>
+          <t>14,75; 23,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,02; 32,49</t>
+          <t>15,81; 23,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 21,61</t>
+          <t>16,56; 23,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 20,26</t>
+          <t>12,41; 20,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 33,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 21,94</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,56; 21,66</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 20,64</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 20,42</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 21,68</t>
+          <t>13,89; 21,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 21,59</t>
+          <t>13,43; 22,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 22,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,25</t>
+          <t>16,82; 27,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 23,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 22,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 21,45</t>
+          <t>16,35; 24,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 27,25</t>
+          <t>13,38; 22,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 21,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 21,3</t>
+          <t>17,68; 28,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 21,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 27,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 21,54</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>14,67; 20,58</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 26,2</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,08; 20,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 21,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 23,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 21,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 23,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,27; 22,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,7; 22,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 22,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 21,19</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 21,28</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 21,56</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>17,7; 21,42</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,68%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>63597</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>119381</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>179890</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>100831</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>93408</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>130715</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>170055</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>140487</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>157005</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>250096</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>349945</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>241318</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41395; 88710</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86002; 153588</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>139147; 231050</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60908; 139026</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67600; 127000</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>102463; 162694</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>137500; 211286</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>100275; 196448</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>119792; 199325</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>209133; 296892</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>297438; 415094</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>179375; 303943</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>168218</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>248285</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>325297</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>162364</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>221526</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>268316</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>303253</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>210384</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>389743</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>628550</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>372748</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122772; 240437</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>198542; 304980</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>263714; 403385</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125001; 211961</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>176661; 277816</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>219762; 313877</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>259072; 363126</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>164260; 263684</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>322190; 477355</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>448303; 600035</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>541896; 716831</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>306095; 435993</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>119957</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>139321</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>175314</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>153312</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>144020</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>184557</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>227812</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>142038</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>263977</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>323878</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>403127</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>295350</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>84388; 166781</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>105365; 186012</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>137572; 215640</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>114964; 198812</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>113464; 184473</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>148493; 221438</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>192599; 269612</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>111106; 181188</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>209902; 325691</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>277087; 385592</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>348222; 464722</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>244090; 351317</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>255293</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>148584</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>227011</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>278561</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>133758</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>223808</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>533854</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>282342</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>450819</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>201158; 317642</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>113711; 186795</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>180349; 297495</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>228123; 337244</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>101579; 166962</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>171165; 275722</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>464241; 612480</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>235632; 330453</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>380361; 534541</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>607064</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>655571</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>680501</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>643517</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>737514</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>717345</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>701121</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>716717</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1344579</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1372916</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1381622</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1360235</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>517057; 708947</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>577536; 745701</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>589812; 790561</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>554735; 736500</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>662505; 826412</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>651830; 796107</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>628833; 785766</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>633258; 806972</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1223955; 1486187</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1253788; 1486355</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1270478; 1505240</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1235588; 1495477</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
